--- a/biology/Botanique/Asparagaceae/Asparagaceae.xlsx
+++ b/biology/Botanique/Asparagaceae/Asparagaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asparagaceae (Asparagacées) sont une famille de plantes monocotylédones.
-Cette famille n'existe pas en classification classique de Cronquist (1981)[1] qui inclut ces plantes dans les Liliacées.
+Cette famille n'existe pas en classification classique de Cronquist (1981) qui inclut ces plantes dans les Liliacées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Asparagus qui vient du grec ἀσπάραγος / aspáragos, « asperge », nom de ces plantes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Asparagus qui vient du grec ἀσπάραγος / aspáragos, « asperge », nom de ces plantes.
 </t>
         </is>
       </c>
@@ -543,73 +557,217 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Asparagacées sont généralement originaires des régions tempérées chaudes et subtropicales, où elles sont largement répandues.
-Les racines et tiges
-Ce sont soit des plantes herbacées pérennes rhizomateuses soit des lianes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asparagacées sont généralement originaires des régions tempérées chaudes et subtropicales, où elles sont largement répandues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asparagaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les racines et tiges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce sont soit des plantes herbacées pérennes rhizomateuses soit des lianes.
 Certaines espèces sont qualifiées d’arbrisseaux même si, bien sûr, les monocotylédones n’ont ni vrais troncs ni formation de bois secondaire.
-La fonction chlorophyllienne est souvent transférée aux tiges.
-Les feuilles
-Une des caractéristiques de cette famille est la présence de feuilles très réduites, généralement jusqu’à l’état d’écailles plus ou moins épineuses. Elles abandonnent souvent leurs fonctions chlorophylliennes.
+La fonction chlorophyllienne est souvent transférée aux tiges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asparagaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les feuilles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une des caractéristiques de cette famille est la présence de feuilles très réduites, généralement jusqu’à l’état d’écailles plus ou moins épineuses. Elles abandonnent souvent leurs fonctions chlorophylliennes.
 Les feuilles sont  dépourvues de stipules.
 Les feuilles ne doivent pas être confondues avec les cladodes, de nombreux et courts rameaux plats, visibles sur les tiges. Ce sont ces cladodes qui assurent le fonctionnement chlorophyllien.
-Signalons que l’introduction de nouveaux genres dans la famille, par l’APG II remet en question cette description traditionnelle des feuilles d’Asparagacées.[Quoi ?]
-La ou les fleurs
-Selon les espèces, on retrouve tous les grands schémas de reproduction : les plants sont soit monoïques, soit dioïques, on trouve des cas d’hermaphrodisme, de polygamie.
+Signalons que l’introduction de nouveaux genres dans la famille, par l’APG II remet en question cette description traditionnelle des feuilles d’Asparagacées.[Quoi ?]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Asparagaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La ou les fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon les espèces, on retrouve tous les grands schémas de reproduction : les plants sont soit monoïques, soit dioïques, on trouve des cas d’hermaphrodisme, de polygamie.
 Il en résulte des inflorescences diverses : les fleurs peuvent être solitaires ou groupées en cyme, en ombelle ou en grappe.
 Les fleurs sont petites et régulières (cycliques).
 Le périanthe est composé de trois pétales et trois sépales, indissociables. Ces six tépales sont soit libres soit soudés. Les fleurs sont donc fondamentalement trimères.
 Les six tépales ont l’aspect de pétales (pétaloïdes), soit l’aspect de sépales (sépaloïdes).
 L’androcée contient 6 étamines toutes fertiles disposées sur deux verticilles (diplostémones). Les anthères semblent être insérées par leur partie dorsale (dorsifixes) et s’ouvrent vers l’intérieur de la fleur (introrses). Enfin la déhiscence des anthères est longitudinale.
-Le gynécée est formé de trois carpelles soudés. Les ovaires, triloculaires, sont supères. Chaque fleur n’a qu’un style mais avec deux à douze ovules par loge, qui ont une placentation axile. Les ovules prennent des positions multiples selon les espèces.
-Le fruit
-Typiquement, le fruit est une baie.
+Le gynécée est formé de trois carpelles soudés. Les ovaires, triloculaires, sont supères. Chaque fleur n’a qu’un style mais avec deux à douze ovules par loge, qui ont une placentation axile. Les ovules prennent des positions multiples selon les espèces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Asparagaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le fruit</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Typiquement, le fruit est une baie.
 Les graines sont albuminées (plus ou moins selon les genres et espèces)
 L’embryon peut être droit jusqu’à courbé.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Asparagaceae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les étapes des classifications
-La première classification phylogénétique (APG 1998) a donc séparé cette famille des Liliacées et la rattache à l'ordre des Asparagales.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les étapes des classifications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première classification phylogénétique (APG 1998) a donc séparé cette famille des Liliacées et la rattache à l'ordre des Asparagales.
 Après 1998, l'Angiosperm Phylogeny Group (APG) a encore modifié sensiblement le classement.
-La classification phylogénétique APG II (2003)[3] offrait deux options :
+La classification phylogénétique APG II (2003) offrait deux options :
 Asparagaceae lato sensu : cette famille inclurait les plantes autrefois assignées aux familles Agavaceae, Aphyllanthaceae, Hyacinthaceae, Laxmanniaceae, Ruscaceae et Themidaceae.
 Asparagaceae stricto sensu : cette famille exclurait les plantes assignées aux familles Agavaceae, Aphyllanthaceae, Hyacinthaceae, Laxmanniaceae, Ruscaceae et Themidaceae. Cette famille ne comprend plus que 2 genres: Asparagus et Hemiphylacus.
-En classification phylogénétique APG III (2009)[4] la famille des Asparagaceae admet sept sous-familles :
+En classification phylogénétique APG III (2009) la famille des Asparagaceae admet sept sous-familles :
 Agavoideae, Herb., 1837
 Aphyllanthoideae (en), Lindl., 1846
 Asparagoideae (en), Burmeist., 1837
 Brodiaeoideae (en), Traub, 1972
 Lomandroideae (en), Thorne &amp; Reveal, 2007
 Nolinoideae 	Burnett, 1835
-Scilloideae (en), Burnett, 1835[5].
+Scilloideae (en), Burnett, 1835.
 L'APG III incorpore dans cette famille les genres des 7 familles suivantes, qui ne sont donc plus reconnues : 
 Agavaceae Dumort., 1829 nom. cons.,
 Aphyllanthaceae Burnett, 1835
@@ -619,45 +777,116 @@
 Ruscaceae M. Roem., 1840 nom. cons.
 Themidaceae Salisb., 1866
 Bien que les Asparagaceae, ainsi définie, soient hétérogènes et mal caractérisées, on ne peut pas voir de caractères distinctifs entre Asparagaceae stricto sensu, Agavaceae, Laxmanniaceae, Ruscaceae et même Hyacinthaceae.
-Le genre type
-Le genre type est Asparagus, genre qui compte plusieurs espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Asparagaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le genre type</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le genre type est Asparagus, genre qui compte plusieurs espèces.
 Citons Asparagus officinalis, l’asperge de nos tables, qui est cultivé en France. Cette asperge est également subspontanée aux alentours des jardins. Asparagus acutifolius est une asperge sauvage du Midi de la France.
 Le genre Asparagus fournit aussi des plantes ornementales, les asparagus : Asparagus plumosus, l’asparagus des fleuristes ; Asparagus sprengeri et la « queue de rat » (Asparagus exuvialis), plantes d'ornement extérieur ; Asparagus densiflorus ou encore Asparagus densiflorus meyeri, plantes d'appartement.
-Asparagus officinalis, l'asperge commune est aussi utilisé pour l'ornementation, séchée avec les baies rouges laissées sur la plante.
-Remarques sur certains genres
-Certains genres comme Hyacinthus (jacinthe véritable) ou ceux appelés globalement les scilles ont des feuilles clairement chlorophylliennes. Si l’introduction de ces genres dans les Asparagacées était définitivement adoptée, la description de la famille devra être revue.
+Asparagus officinalis, l'asperge commune est aussi utilisé pour l'ornementation, séchée avec les baies rouges laissées sur la plante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Asparagaceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Remarques sur certains genres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Certains genres comme Hyacinthus (jacinthe véritable) ou ceux appelés globalement les scilles ont des feuilles clairement chlorophylliennes. Si l’introduction de ces genres dans les Asparagacées était définitivement adoptée, la description de la famille devra être revue.
 Dans la classification APG II (2003) la famille lato sensu qui inclut les Hyacinthaceae pourra devenir une sous-famille, les Hyacinthoideae.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Asparagaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Asparagaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans les familles Agavaceae, Aphyllanthaceae, Hesperocallidaceae, Hyacinthaceae, Laxmanniaceae, Ruscaceae, Themidaceae (Les genres Agave, Beschorneria, Furcraea, Hesperaloe, Manfreda, Polianthes, Prochnyanthes, Yucca entre autres).
-Selon World Checklist of Selected Plant Families (WCSP)  (3 septembre 2012)[6] :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Agavaceae, Aphyllanthaceae, Hesperocallidaceae, Hyacinthaceae, Laxmanniaceae, Ruscaceae, Themidaceae (Les genres Agave, Beschorneria, Furcraea, Hesperaloe, Manfreda, Polianthes, Prochnyanthes, Yucca entre autres).
+Selon World Checklist of Selected Plant Families (WCSP)  (3 septembre 2012) :
 Acanthocarpus Lehm. (1848)
 Agave L. (1753)
 Albuca L. (1762)
@@ -771,7 +1000,7 @@
 Xerolirion A. S. George , (1986)
 Yucca L. , (1753)
 Zagrosia Speta , (1998)
-Selon NCBI  (16 avr. 2010)[7] :
+Selon NCBI  (16 avr. 2010) :
 sous-famille Agavoideae (correspondant à l'ancienne famille Agavaceae)
 Agave
 Anemarrhena
@@ -918,13 +1147,13 @@
 Whiteheadia
 Zagrosia
 Zahariadia
-Selon DELTA Angio           (16 avr. 2010)[8] :
+Selon DELTA Angio           (16 avr. 2010) :
 Agave
 Asparagus
 Hemiphylacus
 Myrsiphyllum
 Protasparagus
-Selon GBIF       (20 juin 2022)[9] :
+Selon GBIF       (20 juin 2022) :
 Acanthocarpus Lehm.
 Agave L.
 Agavites H.Abich (1859)
